--- a/Saved_file/EM001/2026_03/sap_data.xlsx
+++ b/Saved_file/EM001/2026_03/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST8018</t>
+          <t>CUST4035</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46978149</v>
+        <v>51835562</v>
       </c>
       <c r="E2" t="n">
-        <v>15316315</v>
+        <v>16923435</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST6075</t>
+          <t>CUST6594</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57471978</v>
+        <v>36926747</v>
       </c>
       <c r="E3" t="n">
-        <v>14949681</v>
+        <v>9647774</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST2078</t>
+          <t>CUST8384</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43276683</v>
+        <v>51562084</v>
       </c>
       <c r="E4" t="n">
-        <v>15008024</v>
+        <v>15460462</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST3271</t>
+          <t>CUST5542</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>41961145</v>
+        <v>33353202</v>
       </c>
       <c r="E5" t="n">
-        <v>11150251</v>
+        <v>11389876</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,12 +686,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST2078</t>
+          <t>CUST6594</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>56518508</v>
+        <v>33082866</v>
       </c>
       <c r="E6" t="n">
-        <v>19079610</v>
+        <v>9629218</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,25 +762,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST1119</t>
+          <t>CUST2000</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40439400</v>
+        <v>59304834</v>
       </c>
       <c r="E7" t="n">
-        <v>12778390</v>
+        <v>20335583</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST7951</t>
+          <t>CUST1632</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32999973</v>
+        <v>34877807</v>
       </c>
       <c r="E8" t="n">
-        <v>10854461</v>
+        <v>11875553</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST1545</t>
+          <t>CUST8508</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39382606</v>
+        <v>58584330</v>
       </c>
       <c r="E9" t="n">
-        <v>10024360</v>
+        <v>18421325</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,17 +902,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST5365</t>
+          <t>CUST6445</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34151173</v>
+        <v>59567643</v>
       </c>
       <c r="E10" t="n">
-        <v>10997173</v>
+        <v>18272041</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -978,25 +978,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST1652</t>
+          <t>CUST7810</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30735261</v>
+        <v>32420354</v>
       </c>
       <c r="E11" t="n">
-        <v>8726652</v>
+        <v>10147079</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST2078</t>
+          <t>CUST7074</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46756876</v>
+        <v>52051459</v>
       </c>
       <c r="E12" t="n">
-        <v>13872544</v>
+        <v>14087054</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST9709</t>
+          <t>CUST8035</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53173544</v>
+        <v>55678010</v>
       </c>
       <c r="E13" t="n">
-        <v>18442739</v>
+        <v>18743012</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST7642</t>
+          <t>CUST8449</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>49052593</v>
+        <v>51941479</v>
       </c>
       <c r="E14" t="n">
-        <v>13298031</v>
+        <v>17874910</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST1652</t>
+          <t>CUST6433</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>58006299</v>
+        <v>46778962</v>
       </c>
       <c r="E15" t="n">
-        <v>17298071</v>
+        <v>13186304</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST4162</t>
+          <t>CUST3502</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33634657</v>
+        <v>42762512</v>
       </c>
       <c r="E16" t="n">
-        <v>11288934</v>
+        <v>14218171</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST2868</t>
+          <t>CUST5342</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33378092</v>
+        <v>51168725</v>
       </c>
       <c r="E17" t="n">
-        <v>9501622</v>
+        <v>13439368</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST7120</t>
+          <t>CUST4188</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37650842</v>
+        <v>50545748</v>
       </c>
       <c r="E18" t="n">
-        <v>11356136</v>
+        <v>14802262</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST6752</t>
+          <t>CUST7602</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>56942154</v>
+        <v>30875370</v>
       </c>
       <c r="E19" t="n">
-        <v>16683837</v>
+        <v>8782875</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST5595</t>
+          <t>CUST8035</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>49757065</v>
+        <v>55210169</v>
       </c>
       <c r="E20" t="n">
-        <v>15181093</v>
+        <v>18685362</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST8018</t>
+          <t>CUST9936</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46061862</v>
+        <v>55521170</v>
       </c>
       <c r="E21" t="n">
-        <v>15574234</v>
+        <v>16640944</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST1513</t>
+          <t>CUST2312</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42156189</v>
+        <v>34298040</v>
       </c>
       <c r="E22" t="n">
-        <v>11000679</v>
+        <v>8987444</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST4462</t>
+          <t>CUST9107</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30989243</v>
+        <v>31207512</v>
       </c>
       <c r="E23" t="n">
-        <v>8268667</v>
+        <v>9348320</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST6265</t>
+          <t>CUST6856</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>46134807</v>
+        <v>34341335</v>
       </c>
       <c r="E24" t="n">
-        <v>12003709</v>
+        <v>8592744</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1717,12 +1717,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST6265</t>
+          <t>CUST8449</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>47439396</v>
+        <v>33326681</v>
       </c>
       <c r="E25" t="n">
-        <v>14565899</v>
+        <v>10147710</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1788,25 +1788,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST7004</t>
+          <t>CUST6115</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>54279196</v>
+        <v>39353146</v>
       </c>
       <c r="E26" t="n">
-        <v>15165538</v>
+        <v>10868592</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1842,22 +1842,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST7560</t>
+          <t>CUST8660</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34806792</v>
+        <v>43196518</v>
       </c>
       <c r="E27" t="n">
-        <v>10037266</v>
+        <v>11705826</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>28</v>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST9240</t>
+          <t>CUST2312</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>59066679</v>
+        <v>43108377</v>
       </c>
       <c r="E28" t="n">
-        <v>15166797</v>
+        <v>13311803</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST7256</t>
+          <t>CUST8226</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>45210171</v>
+        <v>50314239</v>
       </c>
       <c r="E29" t="n">
-        <v>14256155</v>
+        <v>16343652</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST5365</t>
+          <t>CUST4244</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>52419366</v>
+        <v>46639601</v>
       </c>
       <c r="E30" t="n">
-        <v>16106098</v>
+        <v>12855122</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST4162</t>
+          <t>CUST5952</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>59204528</v>
+        <v>49976175</v>
       </c>
       <c r="E31" t="n">
-        <v>20566823</v>
+        <v>13682183</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST6075</t>
+          <t>CUST7602</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>53873900</v>
+        <v>40601646</v>
       </c>
       <c r="E32" t="n">
-        <v>15496225</v>
+        <v>11581771</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST2968</t>
+          <t>CUST3502</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36090046</v>
+        <v>31150676</v>
       </c>
       <c r="E33" t="n">
-        <v>10748366</v>
+        <v>7989237</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2203,12 +2203,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST9518</t>
+          <t>CUST8449</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>46792700</v>
+        <v>55407087</v>
       </c>
       <c r="E34" t="n">
-        <v>14511266</v>
+        <v>16712630</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST7749</t>
+          <t>CUST6445</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>32404065</v>
+        <v>45380456</v>
       </c>
       <c r="E35" t="n">
-        <v>8277748</v>
+        <v>12493459</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST2563</t>
+          <t>CUST5952</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>51289707</v>
+        <v>50868481</v>
       </c>
       <c r="E36" t="n">
-        <v>16648035</v>
+        <v>13605921</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST5820</t>
+          <t>CUST9469</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>50252061</v>
+        <v>36740790</v>
       </c>
       <c r="E37" t="n">
-        <v>15767562</v>
+        <v>11936929</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST2150</t>
+          <t>CUST5542</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>59273374</v>
+        <v>56840156</v>
       </c>
       <c r="E38" t="n">
-        <v>18899451</v>
+        <v>19493250</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2473,12 +2473,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST7706</t>
+          <t>CUST7602</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>52054523</v>
+        <v>56738080</v>
       </c>
       <c r="E39" t="n">
-        <v>14224742</v>
+        <v>14974149</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST1554</t>
+          <t>CUST8384</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>56271728</v>
+        <v>31931850</v>
       </c>
       <c r="E40" t="n">
-        <v>16471298</v>
+        <v>10021609</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST9580</t>
+          <t>CUST9936</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>30296889</v>
+        <v>37609996</v>
       </c>
       <c r="E41" t="n">
-        <v>9713898</v>
+        <v>11005145</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST7560</t>
+          <t>CUST6115</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>42111926</v>
+        <v>50217710</v>
       </c>
       <c r="E42" t="n">
-        <v>14464523</v>
+        <v>13975286</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST7951</t>
+          <t>CUST9107</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>51407836</v>
+        <v>54123189</v>
       </c>
       <c r="E43" t="n">
-        <v>16809333</v>
+        <v>14522386</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2760,25 +2760,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST2615</t>
+          <t>CUST2718</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>44370292</v>
+        <v>47138761</v>
       </c>
       <c r="E44" t="n">
-        <v>11116455</v>
+        <v>14447299</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST7531</t>
+          <t>CUST2312</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>33967681</v>
+        <v>45776349</v>
       </c>
       <c r="E45" t="n">
-        <v>9521102</v>
+        <v>14445713</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST1513</t>
+          <t>CUST8301</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>40634567</v>
+        <v>43006002</v>
       </c>
       <c r="E46" t="n">
-        <v>12304914</v>
+        <v>11335992</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST2214</t>
+          <t>CUST6856</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>38567569</v>
+        <v>52886053</v>
       </c>
       <c r="E47" t="n">
-        <v>10997396</v>
+        <v>14651994</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST4343</t>
+          <t>CUST5542</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42022628</v>
+        <v>43399577</v>
       </c>
       <c r="E48" t="n">
-        <v>13825741</v>
+        <v>11425153</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST2615</t>
+          <t>CUST8226</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>58931468</v>
+        <v>50942812</v>
       </c>
       <c r="E49" t="n">
-        <v>16002158</v>
+        <v>15565748</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST6752</t>
+          <t>CUST3502</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>34234523</v>
+        <v>42710598</v>
       </c>
       <c r="E50" t="n">
-        <v>10686428</v>
+        <v>14606208</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST8470</t>
+          <t>CUST8437</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>51881611</v>
+        <v>37244078</v>
       </c>
       <c r="E51" t="n">
-        <v>16946619</v>
+        <v>10347725</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3175,12 +3175,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST5365</t>
+          <t>CUST5299</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>48174993</v>
+        <v>38783222</v>
       </c>
       <c r="E52" t="n">
-        <v>16669618</v>
+        <v>9897888</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST7706</t>
+          <t>CUST8887</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>34520795</v>
+        <v>50901059</v>
       </c>
       <c r="E53" t="n">
-        <v>10498554</v>
+        <v>12831113</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST1980</t>
+          <t>CUST7476</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>56357870</v>
+        <v>33666286</v>
       </c>
       <c r="E54" t="n">
-        <v>14969544</v>
+        <v>8624085</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST9518</t>
+          <t>CUST6433</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>54900058</v>
+        <v>36819046</v>
       </c>
       <c r="E55" t="n">
-        <v>16158201</v>
+        <v>11736850</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST1652</t>
+          <t>CUST6445</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>32046168</v>
+        <v>38076887</v>
       </c>
       <c r="E56" t="n">
-        <v>8763308</v>
+        <v>11209007</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST4351</t>
+          <t>CUST5342</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>41819884</v>
+        <v>51890600</v>
       </c>
       <c r="E57" t="n">
-        <v>12190039</v>
+        <v>16755816</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST1545</t>
+          <t>CUST2718</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>56350750</v>
+        <v>59923142</v>
       </c>
       <c r="E58" t="n">
-        <v>15279595</v>
+        <v>15689654</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST5595</t>
+          <t>CUST8625</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>49463978</v>
+        <v>47189855</v>
       </c>
       <c r="E59" t="n">
-        <v>16248860</v>
+        <v>12851844</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-03-31</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST5595</t>
+          <t>CUST2718</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>44971293</v>
+        <v>31539810</v>
       </c>
       <c r="E60" t="n">
-        <v>13212221</v>
+        <v>10341607</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST2563</t>
+          <t>CUST8546</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>33731879</v>
+        <v>48485807</v>
       </c>
       <c r="E61" t="n">
-        <v>10128950</v>
+        <v>15858452</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST4351</t>
+          <t>CUST7074</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>47474345</v>
+        <v>41462628</v>
       </c>
       <c r="E62" t="n">
-        <v>14793544</v>
+        <v>12705252</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST1545</t>
+          <t>CUST7476</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>38121168</v>
+        <v>39322652</v>
       </c>
       <c r="E63" t="n">
-        <v>11674446</v>
+        <v>12644237</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST8470</t>
+          <t>CUST8887</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>32531175</v>
+        <v>35280376</v>
       </c>
       <c r="E64" t="n">
-        <v>8340061</v>
+        <v>11483828</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,17 +3872,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST7531</t>
+          <t>CUST8821</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>46641340</v>
+        <v>37539625</v>
       </c>
       <c r="E65" t="n">
-        <v>14628152</v>
+        <v>12585454</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST1513</t>
+          <t>CUST8301</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>38054729</v>
+        <v>47909528</v>
       </c>
       <c r="E66" t="n">
-        <v>12699599</v>
+        <v>15195581</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3980,12 +3980,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4002,25 +4002,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST1510</t>
+          <t>CUST5859</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>56583090</v>
+        <v>38197503</v>
       </c>
       <c r="E67" t="n">
-        <v>18046785</v>
+        <v>11465907</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4034,17 +4034,17 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4056,29 +4056,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST2150</t>
+          <t>CUST1632</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>53422466</v>
+        <v>38621731</v>
       </c>
       <c r="E68" t="n">
-        <v>18216381</v>
+        <v>10320023</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST6752</t>
+          <t>CUST3502</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>31149629</v>
+        <v>59636915</v>
       </c>
       <c r="E69" t="n">
-        <v>9466183</v>
+        <v>17979183</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4147,12 +4147,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST6752</t>
+          <t>CUST8449</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>32577531</v>
+        <v>45442503</v>
       </c>
       <c r="E70" t="n">
-        <v>10851626</v>
+        <v>12497919</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST3271</t>
+          <t>CUST4244</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35207500</v>
+        <v>57347816</v>
       </c>
       <c r="E71" t="n">
-        <v>11907159</v>
+        <v>14353320</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST9709</t>
+          <t>CUST6433</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>46423306</v>
+        <v>48770524</v>
       </c>
       <c r="E72" t="n">
-        <v>15560564</v>
+        <v>13946345</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4304,17 +4304,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4326,29 +4326,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-03-31</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST1119</t>
+          <t>CUST6915</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>56779142</v>
+        <v>52746672</v>
       </c>
       <c r="E73" t="n">
-        <v>18562957</v>
+        <v>17228269</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4358,17 +4358,17 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST7749</t>
+          <t>CUST9881</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>47376992</v>
+        <v>46101046</v>
       </c>
       <c r="E74" t="n">
-        <v>15726578</v>
+        <v>12539515</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST2078</t>
+          <t>CUST8748</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>40288550</v>
+        <v>35411823</v>
       </c>
       <c r="E75" t="n">
-        <v>14063076</v>
+        <v>9203849</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST3446</t>
+          <t>CUST8552</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>37273375</v>
+        <v>34028207</v>
       </c>
       <c r="E76" t="n">
-        <v>9724532</v>
+        <v>10207255</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4520,17 +4520,17 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST6752</t>
+          <t>CUST8426</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>35376907</v>
+        <v>54212589</v>
       </c>
       <c r="E77" t="n">
-        <v>10532811</v>
+        <v>18462639</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST1513</t>
+          <t>CUST2718</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>41806625</v>
+        <v>49427773</v>
       </c>
       <c r="E78" t="n">
-        <v>14063782</v>
+        <v>16347989</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST7706</t>
+          <t>CUST8437</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>57607264</v>
+        <v>46457364</v>
       </c>
       <c r="E79" t="n">
-        <v>16180882</v>
+        <v>12524126</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4687,12 +4687,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST2301</t>
+          <t>CUST8748</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>31402702</v>
+        <v>34947409</v>
       </c>
       <c r="E80" t="n">
-        <v>8445116</v>
+        <v>10759878</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4736,17 +4736,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4758,29 +4758,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST5365</t>
+          <t>CUST3502</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>50236242</v>
+        <v>50764619</v>
       </c>
       <c r="E81" t="n">
-        <v>17491553</v>
+        <v>15588469</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST9518</t>
+          <t>CUST3502</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>36350381</v>
+        <v>52419763</v>
       </c>
       <c r="E82" t="n">
-        <v>12175200</v>
+        <v>13847693</v>
       </c>
       <c r="F82" t="n">
         <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4866,29 +4866,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST2214</t>
+          <t>CUST2000</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>45306721</v>
+        <v>32559287</v>
       </c>
       <c r="E83" t="n">
-        <v>14851330</v>
+        <v>10933898</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4898,17 +4898,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4920,25 +4920,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST2150</t>
+          <t>CUST7602</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>53864070</v>
+        <v>59012258</v>
       </c>
       <c r="E84" t="n">
-        <v>16805486</v>
+        <v>19116454</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST7256</t>
+          <t>CUST5542</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>40663656</v>
+        <v>44319555</v>
       </c>
       <c r="E85" t="n">
-        <v>13590462</v>
+        <v>14928246</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5006,12 +5006,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5028,29 +5028,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST5935</t>
+          <t>CUST3139</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>55829831</v>
+        <v>46000428</v>
       </c>
       <c r="E86" t="n">
-        <v>17163594</v>
+        <v>13763279</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5082,25 +5082,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST3446</t>
+          <t>CUST8035</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>45587579</v>
+        <v>48410580</v>
       </c>
       <c r="E87" t="n">
-        <v>11457931</v>
+        <v>13060645</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5114,17 +5114,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST3271</t>
+          <t>CUST4035</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>33756272</v>
+        <v>51716505</v>
       </c>
       <c r="E88" t="n">
-        <v>9174289</v>
+        <v>14702687</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5168,17 +5168,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5190,29 +5190,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST5595</t>
+          <t>CUST2312</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>59728579</v>
+        <v>40085855</v>
       </c>
       <c r="E89" t="n">
-        <v>19235532</v>
+        <v>13461994</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST7531</t>
+          <t>CUST8887</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>39464886</v>
+        <v>53432626</v>
       </c>
       <c r="E90" t="n">
-        <v>12020650</v>
+        <v>14841376</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5276,12 +5276,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST7120</t>
+          <t>CUST5342</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>48602193</v>
+        <v>52165861</v>
       </c>
       <c r="E91" t="n">
-        <v>14873851</v>
+        <v>13180563</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5330,17 +5330,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5352,25 +5352,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST7642</t>
+          <t>CUST8035</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>31158614</v>
+        <v>56593020</v>
       </c>
       <c r="E92" t="n">
-        <v>9669381</v>
+        <v>19494809</v>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5406,29 +5406,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST3446</t>
+          <t>CUST8226</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>48571961</v>
+        <v>30183235</v>
       </c>
       <c r="E93" t="n">
-        <v>15752186</v>
+        <v>9379498</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5438,12 +5438,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5460,25 +5460,25 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST3446</t>
+          <t>CUST6406</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>46357598</v>
+        <v>44949669</v>
       </c>
       <c r="E94" t="n">
-        <v>15354111</v>
+        <v>11829969</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -5492,17 +5492,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5514,29 +5514,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST5820</t>
+          <t>CUST5952</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>52190259</v>
+        <v>57064775</v>
       </c>
       <c r="E95" t="n">
-        <v>14703487</v>
+        <v>17275431</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5568,25 +5568,25 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST8984</t>
+          <t>CUST4214</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>38995575</v>
+        <v>51289472</v>
       </c>
       <c r="E96" t="n">
-        <v>10422562</v>
+        <v>13524835</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -5600,12 +5600,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5622,29 +5622,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST9518</t>
+          <t>CUST3139</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>30787970</v>
+        <v>49636963</v>
       </c>
       <c r="E97" t="n">
-        <v>8429440</v>
+        <v>17041102</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5654,17 +5654,17 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST9709</t>
+          <t>CUST8242</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>54564559</v>
+        <v>38496950</v>
       </c>
       <c r="E98" t="n">
-        <v>18030812</v>
+        <v>12020476</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -5708,17 +5708,17 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5730,25 +5730,25 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-03-25</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST9709</t>
+          <t>CUST6594</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>46344295</v>
+        <v>43231423</v>
       </c>
       <c r="E99" t="n">
-        <v>15011121</v>
+        <v>14242383</v>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5784,25 +5784,25 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST5595</t>
+          <t>CUST3502</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>43896891</v>
+        <v>48910383</v>
       </c>
       <c r="E100" t="n">
-        <v>12955731</v>
+        <v>16547420</v>
       </c>
       <c r="F100" t="n">
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5838,25 +5838,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST7749</t>
+          <t>CUST5859</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>33779004</v>
+        <v>37435159</v>
       </c>
       <c r="E101" t="n">
-        <v>10532812</v>
+        <v>12926067</v>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -5875,12 +5875,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5892,29 +5892,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST1510</t>
+          <t>CUST8384</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>50616488</v>
+        <v>50086840</v>
       </c>
       <c r="E102" t="n">
-        <v>17541332</v>
+        <v>15827484</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -5946,29 +5946,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST7004</t>
+          <t>CUST8242</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>39406383</v>
+        <v>31803066</v>
       </c>
       <c r="E103" t="n">
-        <v>12709293</v>
+        <v>10780961</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5978,17 +5978,17 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6000,29 +6000,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST6265</t>
+          <t>CUST2204</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>34430366</v>
+        <v>45846688</v>
       </c>
       <c r="E104" t="n">
-        <v>11876083</v>
+        <v>12661743</v>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6054,29 +6054,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST2868</t>
+          <t>CUST8546</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>40411393</v>
+        <v>40120999</v>
       </c>
       <c r="E105" t="n">
-        <v>13320833</v>
+        <v>11108290</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6086,17 +6086,17 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST7875</t>
+          <t>CUST6856</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>43499087</v>
+        <v>38362698</v>
       </c>
       <c r="E106" t="n">
-        <v>14370227</v>
+        <v>12391567</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6140,17 +6140,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6162,29 +6162,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST8018</t>
+          <t>CUST8546</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>39181351</v>
+        <v>56233806</v>
       </c>
       <c r="E107" t="n">
-        <v>12127984</v>
+        <v>14444521</v>
       </c>
       <c r="F107" t="n">
         <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -6216,25 +6216,25 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST8984</t>
+          <t>CUST8660</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>55905068</v>
+        <v>42011832</v>
       </c>
       <c r="E108" t="n">
-        <v>16985129</v>
+        <v>14331268</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -6248,12 +6248,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -6270,25 +6270,25 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST6265</t>
+          <t>CUST4214</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>34405984</v>
+        <v>48479437</v>
       </c>
       <c r="E109" t="n">
-        <v>9928739</v>
+        <v>12680225</v>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST1119</t>
+          <t>CUST8887</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>56565968</v>
+        <v>52563863</v>
       </c>
       <c r="E110" t="n">
-        <v>19704048</v>
+        <v>14490163</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6378,25 +6378,25 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST9518</t>
+          <t>CUST2006</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>34812627</v>
+        <v>46645554</v>
       </c>
       <c r="E111" t="n">
-        <v>10028731</v>
+        <v>11897620</v>
       </c>
       <c r="F111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -6410,12 +6410,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -6432,25 +6432,25 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST5935</t>
+          <t>CUST3139</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>39612080</v>
+        <v>35140532</v>
       </c>
       <c r="E112" t="n">
-        <v>12884520</v>
+        <v>11982012</v>
       </c>
       <c r="F112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -6464,17 +6464,17 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6486,29 +6486,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-03-31</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST7749</t>
+          <t>CUST8552</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>55728179</v>
+        <v>47715746</v>
       </c>
       <c r="E113" t="n">
-        <v>17256199</v>
+        <v>15303813</v>
       </c>
       <c r="F113" t="n">
         <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST1652</t>
+          <t>CUST2006</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>33851069</v>
+        <v>57170368</v>
       </c>
       <c r="E114" t="n">
-        <v>10253667</v>
+        <v>15878844</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -6572,17 +6572,17 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6594,25 +6594,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST2563</t>
+          <t>CUST8660</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>52774470</v>
+        <v>31689669</v>
       </c>
       <c r="E115" t="n">
-        <v>15554268</v>
+        <v>10038439</v>
       </c>
       <c r="F115" t="n">
         <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -6626,12 +6626,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -6648,25 +6648,25 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST4462</t>
+          <t>CUST8437</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>32335899</v>
+        <v>49573028</v>
       </c>
       <c r="E116" t="n">
-        <v>10554192</v>
+        <v>14355412</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -6680,17 +6680,17 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6702,25 +6702,25 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST4343</t>
+          <t>CUST6442</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>59208776</v>
+        <v>43248779</v>
       </c>
       <c r="E117" t="n">
-        <v>17020600</v>
+        <v>12869338</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -6739,12 +6739,12 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST9709</t>
+          <t>CUST4343</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>55781484</v>
+        <v>36065400</v>
       </c>
       <c r="E118" t="n">
-        <v>14616652</v>
+        <v>10113440</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6788,12 +6788,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -6810,25 +6810,25 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST1554</t>
+          <t>CUST9107</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>30992015</v>
+        <v>32538930</v>
       </c>
       <c r="E119" t="n">
-        <v>10243307</v>
+        <v>9999886</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -6864,25 +6864,25 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST2968</t>
+          <t>CUST5952</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>43104420</v>
+        <v>49238023</v>
       </c>
       <c r="E120" t="n">
-        <v>12870373</v>
+        <v>12983830</v>
       </c>
       <c r="F120" t="n">
         <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -6896,17 +6896,17 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6918,25 +6918,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST7120</t>
+          <t>CUST8660</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>58321753</v>
+        <v>37539191</v>
       </c>
       <c r="E121" t="n">
-        <v>20207142</v>
+        <v>11068256</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94</v>
+        <v>91.7</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>11474037</v>
+        <v>13440722</v>
       </c>
       <c r="E3" t="n">
-        <v>2207024</v>
+        <v>1704106</v>
       </c>
     </row>
     <row r="4">
@@ -7055,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.8</v>
+        <v>91.8</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3486484</v>
+        <v>18497200</v>
       </c>
       <c r="E4" t="n">
-        <v>964576</v>
+        <v>2725514</v>
       </c>
     </row>
     <row r="5">
@@ -7074,16 +7074,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4936227</v>
+        <v>7041718</v>
       </c>
       <c r="E5" t="n">
-        <v>835484</v>
+        <v>1528311</v>
       </c>
     </row>
     <row r="6">
@@ -7093,16 +7093,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>8922776</v>
+        <v>9602402</v>
       </c>
       <c r="E6" t="n">
-        <v>1108121</v>
+        <v>1875044</v>
       </c>
     </row>
     <row r="7">
@@ -7112,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>9881503</v>
+        <v>4946124</v>
       </c>
       <c r="E7" t="n">
-        <v>2572682</v>
+        <v>1203952</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3994790</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1068050</v>
       </c>
     </row>
     <row r="9">
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>8248023</v>
+        <v>5312251</v>
       </c>
       <c r="E10" t="n">
-        <v>1355174</v>
+        <v>1170244</v>
       </c>
     </row>
     <row r="11">
@@ -7188,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.3</v>
+        <v>92</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>17059885</v>
+        <v>11959546</v>
       </c>
       <c r="E11" t="n">
-        <v>2223519</v>
+        <v>1538596</v>
       </c>
     </row>
     <row r="12">
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>12717796</v>
+        <v>13315681</v>
       </c>
       <c r="E12" t="n">
-        <v>2447040</v>
+        <v>3931690</v>
       </c>
     </row>
     <row r="13">
@@ -7226,16 +7226,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.5</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>7641982</v>
+        <v>13831447</v>
       </c>
       <c r="E13" t="n">
-        <v>1220942</v>
+        <v>3122653</v>
       </c>
     </row>
     <row r="14">
@@ -7248,13 +7248,13 @@
         <v>93.5</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>4138634</v>
+        <v>16345911</v>
       </c>
       <c r="E14" t="n">
-        <v>779346</v>
+        <v>2413082</v>
       </c>
     </row>
     <row r="15">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4361865</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>481035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>6023409</v>
+        <v>6989139</v>
       </c>
       <c r="E17" t="n">
-        <v>1040256</v>
+        <v>1585090</v>
       </c>
     </row>
     <row r="18">
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>90.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>7109121</v>
+        <v>6892642</v>
       </c>
       <c r="E18" t="n">
-        <v>861255</v>
+        <v>1815238</v>
       </c>
     </row>
     <row r="19">
@@ -7340,16 +7340,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>4654370</v>
+        <v>11397518</v>
       </c>
       <c r="E19" t="n">
-        <v>1313356</v>
+        <v>2749078</v>
       </c>
     </row>
     <row r="20">
@@ -7359,16 +7359,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.5</v>
+        <v>94.8</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>6466786</v>
+        <v>23511661</v>
       </c>
       <c r="E20" t="n">
-        <v>1643509</v>
+        <v>3970224</v>
       </c>
     </row>
     <row r="21">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.2</v>
+        <v>95.8</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>5030509</v>
+        <v>13513469</v>
       </c>
       <c r="E21" t="n">
-        <v>632898</v>
+        <v>3166553</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6489149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>953033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>96.2</v>
+        <v>94.3</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>10440247</v>
+        <v>13807534</v>
       </c>
       <c r="E24" t="n">
-        <v>2888691</v>
+        <v>2064658</v>
       </c>
     </row>
     <row r="25">
@@ -7454,16 +7454,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93</v>
+        <v>98.2</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>4077239</v>
+        <v>6297729</v>
       </c>
       <c r="E25" t="n">
-        <v>1210812</v>
+        <v>1508522</v>
       </c>
     </row>
     <row r="26">
@@ -7473,16 +7473,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93</v>
+        <v>90.3</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>13346485</v>
+        <v>20894551</v>
       </c>
       <c r="E26" t="n">
-        <v>3497318</v>
+        <v>2143589</v>
       </c>
     </row>
     <row r="27">
@@ -7492,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>92.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>16793604</v>
+        <v>12398971</v>
       </c>
       <c r="E27" t="n">
-        <v>4114745</v>
+        <v>3466948</v>
       </c>
     </row>
     <row r="28">
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.5</v>
+        <v>92.5</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>6964273</v>
+        <v>12143313</v>
       </c>
       <c r="E28" t="n">
-        <v>1566457</v>
+        <v>1471094</v>
       </c>
     </row>
     <row r="29">
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>91.5</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>6840826</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1657212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7568,16 +7568,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>6842979</v>
+        <v>6421872</v>
       </c>
       <c r="E31" t="n">
-        <v>1189209</v>
+        <v>1159546</v>
       </c>
     </row>
     <row r="32">
@@ -7587,16 +7587,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>12347255</v>
+        <v>7648086</v>
       </c>
       <c r="E32" t="n">
-        <v>1449221</v>
+        <v>1251918</v>
       </c>
     </row>
   </sheetData>
